--- a/k-dic-core/src/main/resources/k-dic-default/k-dic-sensitive-default.xlsx
+++ b/k-dic-core/src/main/resources/k-dic-default/k-dic-sensitive-default.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijian/workspace_gitee/k-dic/k-dic-core/src/main/resources/config/dic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijian/workspace_gitee/k-dic/k-dic-core/src/main/resources/k-dic-default/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AFAFA5-7288-B841-83DF-61A3D455F7A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006565EB-7872-FB40-8CB0-ADA8DBA4DF01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>主词</t>
-  </si>
-  <si>
-    <t>辅助词</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -512,7 +506,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:C3"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -526,88 +520,88 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -621,23 +615,24 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -651,25 +646,26 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
